--- a/file/遥感大模型论文汇总.xlsx
+++ b/file/遥感大模型论文汇总.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\资料\研一\项目\遥感大模型综述\A review for remote sensing vision language models\A-Review-for-remote-sensing-vision-language-models\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171C0FC5-EA4F-4F72-818A-0753DBEE1619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97272646-66AF-4CE2-90C1-846525BCC740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="25575" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="255" yWindow="690" windowWidth="25575" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="智能表2" sheetId="2" r:id="rId2"/>
+    <sheet name="智能表1" sheetId="2" r:id="rId2"/>
     <sheet name="工作表2" sheetId="3" r:id="rId3"/>
-    <sheet name="智能表1" sheetId="4" r:id="rId4"/>
+    <sheet name="智能表2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="1070">
   <si>
     <t>Paper</t>
   </si>
@@ -1225,15 +1225,6 @@
     <t>对比学习、生成式学习；图像，时间序列</t>
   </si>
   <si>
-    <t>表格视图</t>
-  </si>
-  <si>
-    <t>Backbone 1</t>
-  </si>
-  <si>
-    <t>下游任务 1</t>
-  </si>
-  <si>
     <t>Classification, Semantic Segmentation, Change Detection</t>
   </si>
   <si>
@@ -4680,10 +4671,6 @@
     <t>提出了RS pretraining的概念。测试了CNN和VIT模型和一些增强方式。</t>
   </si>
   <si>
-    <t>Seasonal Contrast:
-Unsupervised Pre-Training from Uncurated Remote Sensing Data</t>
-  </si>
-  <si>
     <t>CVPR 2021</t>
   </si>
   <si>
@@ -4789,17 +4776,9 @@
     <t>虽然大多数基础模型都是为了有效地处理各种视觉任务的RGB图像而定制的，但在光谱数据方面的研究存在明显的差距。采用MAE架构构建，多目标重建策略；generative pretrained transformer(GPT)</t>
   </si>
   <si>
-    <t>Generic Knowledge Boosted Pre-training For
-Remote Sensing Images</t>
-  </si>
-  <si>
     <t>自监督遥感+有监督自然图像</t>
   </si>
   <si>
-    <t>MTP: Advancing Remote Sensing Foundation
-Model via Multi-Task Pretraining</t>
-  </si>
-  <si>
     <t>Arxiv 2024</t>
   </si>
   <si>
@@ -4833,10 +4812,6 @@
     <t>主要在数据集，没有特殊的训练方法</t>
   </si>
   <si>
-    <t>BIGEARTHNET: A LARGE-SCALE BENCHMARK ARCHIVE FOR REMOTE SENSING
-IMAGE UNDERSTANDING</t>
-  </si>
-  <si>
     <t>IEEE International Geoscience and Remote Sensing Symposium 2019</t>
   </si>
   <si>
@@ -4891,10 +4866,6 @@
     <t>基于DINO，一种最先进的SSL算法，从输入图像的两个增强视图中提取知识，我们通过将所有通道连接到统一的输入来结合SAR和光学图像。随后，我们随机屏蔽掉一种模态的通道作为数据增强策略。</t>
   </si>
   <si>
-    <t>Geographical Knowledge-Driven Representation
-Learning for Remote Sensing Images</t>
-  </si>
-  <si>
     <t>对比学习，利用地理信息（地表覆盖种类）构建正负样本对</t>
   </si>
   <si>
@@ -4913,10 +4884,6 @@
     <t>自监督，MAE</t>
   </si>
   <si>
-    <t xml:space="preserve">Self-Supervised Learning for Invariant Representations from Multi-Spectral and SAR Images
-</t>
-  </si>
-  <si>
     <t>IEEE Journal of Selected Topics in Applied Earth Observations and Remote Sensing 2022</t>
   </si>
   <si>
@@ -5052,10 +5019,6 @@
     <t>change detection, classification, multi-label classification, semantic segmentation, and super-resolution</t>
   </si>
   <si>
-    <t>改论文注意到了地理空间数据集的多样性对MIM预训练十分重要。为了增加纹理细节，我们确保了各种地面采样距离（GSD），包括比Sentinel-2（GSD为10米）高得多分辨率的图像。此外，选择的标签数据集涵盖了广泛的通用遥感场景类，确保样本间的视觉多样性。
-通过蒸馏的方式让学生网络学习到ImageNet pretrain的特征。</t>
-  </si>
-  <si>
     <t>Scale-MAE: A Scale-Aware Masked Autoencoder for Multiscale Geospatial Representation Learning</t>
   </si>
   <si>
@@ -5065,10 +5028,6 @@
     <t>ViT-Large</t>
   </si>
   <si>
-    <t>基于KNN的分类，linear classi-
-fication，Semantic segmentation</t>
-  </si>
-  <si>
     <t>原始ViT的位置编码与相机高度无关，Scale-MAE引入了基于地面采样距离（GSD）的位置编码，该编码与图像中土地面积成比例缩放，而不考虑图像的分辨率。此外，Scale-MAE还在MAE框架中引入了拉普拉斯金字塔解码器，以鼓励网络学习多尺度表示。来自ViT编码器的嵌入被解码为捕捉低频信息的低分辨率图像和捕捉高频信息的高分辨率图像。</t>
   </si>
   <si>
@@ -5156,10 +5115,6 @@
     <t>Swin-B</t>
   </si>
   <si>
-    <t>classification, semantic segmentation, object detection, 
-instance segmentation</t>
-  </si>
-  <si>
     <t>CtxMIM将原始图像块形式化为重建模板，并采用Siamese框架处理两组图像块。引入了一个上下文增强的生成分支，通过重建中的上下文一致性约束提供上下文信息。通过这种简单且优雅的设计，CtxMIM鼓励预训练模型在大规模数据集上学习对象级或像素级特征，而无需特定的时间或地理约束。</t>
   </si>
   <si>
@@ -5214,10 +5169,6 @@
     <t>关注时间序列，单像素时间预测</t>
   </si>
   <si>
-    <t>与Lightweight, Pre-trained Transformers for
-Remote Sensing Timeseries相似，用了更大的数据集</t>
-  </si>
-  <si>
     <t>USat: A Unified Self-Supervised Encoder for Multi-Sensor Satellite Imagery</t>
   </si>
   <si>
@@ -5348,10 +5299,6 @@
   </si>
   <si>
     <t>针对地球和气候科学</t>
-  </si>
-  <si>
-    <t>有一些问题：1. 专注于预训练数据集的策划，往往过度采样城市等人口稠密地区，而在雨林、极地和海洋等人口稀少地区采样不足 2. 预训练数据集往往专注于中高分辨率的RGB和MSI，很少有大规模的数据集用于SAR、HSI或Lidar数据，或用于非常高或低分辨率的图像。像DOFA这样的多传感器模型很少见，大多数模型需要在每次遇到新的成像平台时从头训练 3. 时间序列地球观测建模也处于起步阶段，少有模型能够处理具有不规则间隔的可变长度图像序列。在地球观测中整合不确定性量化和物理一致性仍未得到充分探索。
-未来的发展：1.具有条件计算的动态编码器 2.多尺度的空间-时间分析 3.多模态学习框架 4.与大型语言模型的对齐 ...</t>
   </si>
   <si>
     <t>遥感基础模型发展综述与未来设想</t>
@@ -6550,6 +6497,83 @@
   <si>
     <t>Vision Encoder：EVA-CLIPText Encoder：LLaMA2-chat</t>
     <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Published in</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code/Project</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Backbone</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Backbone 1</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>下游任务</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>下游任务 1</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Survey Inclusion</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>other</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seasonal Contrast:Unsupervised Pre-Training from Uncurated Remote Sensing Data</t>
+  </si>
+  <si>
+    <t>Generic Knowledge Boosted Pre-training ForRemote Sensing Images</t>
+  </si>
+  <si>
+    <t>MTP: Advancing Remote Sensing FoundationModel via Multi-Task Pretraining</t>
+  </si>
+  <si>
+    <t>BIGEARTHNET: A LARGE-SCALE BENCHMARK ARCHIVE FOR REMOTE SENSINGIMAGE UNDERSTANDING</t>
+  </si>
+  <si>
+    <t>Geographical Knowledge-Driven RepresentationLearning for Remote Sensing Images</t>
+  </si>
+  <si>
+    <t>Self-Supervised Learning for Invariant Representations from Multi-Spectral and SAR Images</t>
+  </si>
+  <si>
+    <t>改论文注意到了地理空间数据集的多样性对MIM预训练十分重要。为了增加纹理细节，我们确保了各种地面采样距离（GSD），包括比Sentinel-2（GSD为10米）高得多分辨率的图像。此外，选择的标签数据集涵盖了广泛的通用遥感场景类，确保样本间的视觉多样性。通过蒸馏的方式让学生网络学习到ImageNet pretrain的特征。</t>
+  </si>
+  <si>
+    <t>基于KNN的分类，linear classi-fication，Semantic segmentation</t>
+  </si>
+  <si>
+    <t>classification, semantic segmentation, object detection, instance segmentation</t>
+  </si>
+  <si>
+    <t>与Lightweight, Pre-trained Transformers forRemote Sensing Timeseries相似，用了更大的数据集</t>
+  </si>
+  <si>
+    <t>有一些问题：1. 专注于预训练数据集的策划，往往过度采样城市等人口稠密地区，而在雨林、极地和海洋等人口稀少地区采样不足 2. 预训练数据集往往专注于中高分辨率的RGB和MSI，很少有大规模的数据集用于SAR、HSI或Lidar数据，或用于非常高或低分辨率的图像。像DOFA这样的多传感器模型很少见，大多数模型需要在每次遇到新的成像平台时从头训练 3. 时间序列地球观测建模也处于起步阶段，少有模型能够处理具有不规则间隔的可变长度图像序列。在地球观测中整合不确定性量化和物理一致性仍未得到充分探索。未来的发展：1.具有条件计算的动态编码器 2.多尺度的空间-时间分析 3.多模态学习框架 4.与大型语言模型的对齐 ...</t>
   </si>
 </sst>
 </file>
@@ -6802,14 +6826,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7202,10 +7226,10 @@
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>17</v>
@@ -7234,10 +7258,10 @@
         <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>22</v>
@@ -7266,7 +7290,7 @@
         <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>27</v>
@@ -7298,10 +7322,10 @@
         <v>34</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>35</v>
@@ -7328,7 +7352,7 @@
         <v>39</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>27</v>
@@ -7357,10 +7381,10 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>46</v>
@@ -7389,10 +7413,10 @@
         <v>50</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>51</v>
@@ -7421,10 +7445,10 @@
         <v>54</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>55</v>
@@ -7453,10 +7477,10 @@
         <v>21</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>59</v>
@@ -7485,10 +7509,10 @@
         <v>21</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>62</v>
@@ -7517,10 +7541,10 @@
         <v>26</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>64</v>
@@ -7549,10 +7573,10 @@
         <v>54</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>35</v>
@@ -7584,7 +7608,7 @@
         <v>71</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>27</v>
@@ -7607,10 +7631,10 @@
       <c r="D15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>74</v>
@@ -7635,10 +7659,10 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>74</v>
@@ -7658,10 +7682,10 @@
       <c r="D17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>74</v>
@@ -7684,7 +7708,7 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>27</v>
@@ -7706,7 +7730,7 @@
         <v>82</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>27</v>
@@ -7738,7 +7762,7 @@
         <v>86</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>27</v>
@@ -7770,7 +7794,7 @@
         <v>91</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>27</v>
@@ -7793,7 +7817,7 @@
       <c r="D22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>27</v>
@@ -7819,10 +7843,10 @@
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>98</v>
@@ -7849,7 +7873,7 @@
         <v>101</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>27</v>
@@ -7878,7 +7902,7 @@
         <v>101</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>27</v>
@@ -7898,7 +7922,7 @@
         <v>101</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>27</v>
@@ -7919,10 +7943,10 @@
         <v>101</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>29</v>
@@ -7948,10 +7972,10 @@
         <v>101</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>29</v>
@@ -7970,10 +7994,10 @@
         <v>112</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>18</v>
@@ -7990,7 +8014,7 @@
       <c r="D30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>27</v>
@@ -8019,7 +8043,7 @@
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>27</v>
@@ -8041,10 +8065,10 @@
         <v>119</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>120</v>
@@ -8067,7 +8091,7 @@
       <c r="D33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>27</v>
@@ -8084,7 +8108,7 @@
       <c r="D34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>27</v>
@@ -8110,10 +8134,10 @@
       <c r="D35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>127</v>
@@ -8136,7 +8160,7 @@
       <c r="D36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>27</v>
@@ -9129,20 +9153,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD1"/>
+      <selection pane="topRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="53"/>
     <col min="2" max="12" width="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12.75">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9180,9 +9204,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="12.75">
+    <row r="2" spans="1:12">
       <c r="A2" s="19" t="s">
-        <v>971</v>
+        <v>957</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -9193,28 +9217,28 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>1061</v>
+      <c r="E2" s="22" t="s">
+        <v>1047</v>
       </c>
       <c r="F2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G2" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
       <c r="H2" t="s">
-        <v>902</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>1040</v>
+        <v>888</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>1026</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="12.75">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="19" t="s">
-        <v>972</v>
+        <v>958</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -9226,27 +9250,27 @@
         <v>14</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>1041</v>
+        <v>1027</v>
       </c>
       <c r="F3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G3" t="s">
-        <v>903</v>
+        <v>889</v>
       </c>
       <c r="H3" t="s">
-        <v>904</v>
+        <v>890</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>1042</v>
+        <v>1028</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="12.75">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="19" t="s">
-        <v>973</v>
+        <v>959</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -9258,59 +9282,59 @@
         <v>14</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>1043</v>
+        <v>1029</v>
       </c>
       <c r="F4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G4" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="H4" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>1044</v>
+        <v>1030</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="12.75">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="19" t="s">
-        <v>974</v>
+        <v>960</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>1045</v>
+        <v>1031</v>
       </c>
       <c r="F5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G5" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="H5" t="s">
-        <v>908</v>
+        <v>894</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>975</v>
+        <v>961</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="12.75">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="19" t="s">
-        <v>977</v>
+        <v>963</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -9319,85 +9343,85 @@
         <v>14</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>978</v>
+        <v>964</v>
       </c>
       <c r="F6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G6" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
       <c r="H6" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>979</v>
+        <v>965</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>980</v>
+        <v>966</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="12.75">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="19" t="s">
-        <v>982</v>
+        <v>968</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>983</v>
+        <v>969</v>
       </c>
       <c r="G7" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="H7" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>1046</v>
+        <v>1032</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="12.75">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="19" t="s">
-        <v>985</v>
+        <v>971</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>1047</v>
+        <v>1033</v>
       </c>
       <c r="F8" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G8" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
       <c r="H8" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>1048</v>
+        <v>1034</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="12.75">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="19" t="s">
-        <v>986</v>
+        <v>972</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -9409,27 +9433,27 @@
         <v>14</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>1049</v>
+        <v>1035</v>
       </c>
       <c r="F9" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G9" t="s">
-        <v>915</v>
+        <v>901</v>
       </c>
       <c r="H9" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>987</v>
+        <v>973</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="12.75">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="19" t="s">
-        <v>989</v>
+        <v>975</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -9441,27 +9465,27 @@
         <v>14</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>1050</v>
+        <v>1036</v>
       </c>
       <c r="F10" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G10" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="H10" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>1051</v>
+        <v>1037</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="12.75">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="19" t="s">
-        <v>990</v>
+        <v>976</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -9473,27 +9497,27 @@
         <v>14</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>1052</v>
+        <v>1038</v>
       </c>
       <c r="F11" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G11" t="s">
-        <v>919</v>
+        <v>905</v>
       </c>
       <c r="H11" t="s">
-        <v>920</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>1060</v>
+        <v>906</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>1046</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="12.75">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="19" t="s">
-        <v>991</v>
+        <v>977</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -9505,27 +9529,27 @@
         <v>14</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>1052</v>
+        <v>1038</v>
       </c>
       <c r="F12" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G12" t="s">
-        <v>921</v>
+        <v>907</v>
       </c>
       <c r="H12" t="s">
-        <v>922</v>
+        <v>908</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>1053</v>
+        <v>1039</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="12.75">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="19" t="s">
-        <v>993</v>
+        <v>979</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
@@ -9537,30 +9561,30 @@
         <v>14</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>994</v>
+        <v>980</v>
       </c>
       <c r="F13" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G13" t="s">
-        <v>923</v>
+        <v>909</v>
       </c>
       <c r="H13" t="s">
-        <v>924</v>
+        <v>910</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>975</v>
+        <v>961</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>995</v>
+        <v>981</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="12.75">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="19" t="s">
-        <v>997</v>
+        <v>983</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
@@ -9572,47 +9596,47 @@
         <v>14</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>994</v>
+        <v>980</v>
       </c>
       <c r="F14" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G14" t="s">
-        <v>925</v>
+        <v>911</v>
       </c>
       <c r="H14" t="s">
-        <v>926</v>
+        <v>912</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>975</v>
+        <v>961</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="12.75">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="19" t="s">
-        <v>998</v>
+        <v>984</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
       </c>
       <c r="G15" t="s">
-        <v>927</v>
+        <v>913</v>
       </c>
       <c r="H15" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="12.75">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="19" t="s">
-        <v>1001</v>
+        <v>987</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -9621,87 +9645,87 @@
         <v>14</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>1002</v>
+        <v>988</v>
       </c>
       <c r="G16" t="s">
-        <v>929</v>
+        <v>915</v>
       </c>
       <c r="H16" t="s">
-        <v>930</v>
+        <v>916</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="12.75">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="19" t="s">
-        <v>1003</v>
+        <v>989</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>931</v>
+        <v>917</v>
       </c>
       <c r="H17" t="s">
-        <v>932</v>
+        <v>918</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="12.75">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="19" t="s">
-        <v>1004</v>
+        <v>990</v>
       </c>
       <c r="B18" t="s">
         <v>44</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>1005</v>
+        <v>991</v>
       </c>
       <c r="G18" t="s">
-        <v>933</v>
+        <v>919</v>
       </c>
       <c r="H18" t="s">
-        <v>934</v>
+        <v>920</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="12.75">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="19" t="s">
-        <v>1006</v>
+        <v>992</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G19" t="s">
-        <v>935</v>
+        <v>921</v>
       </c>
       <c r="H19" t="s">
-        <v>936</v>
+        <v>922</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>1007</v>
+        <v>993</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="12.75">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="19" t="s">
-        <v>1008</v>
+        <v>994</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
@@ -9713,27 +9737,27 @@
         <v>14</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="F20" t="s">
         <v>86</v>
       </c>
       <c r="G20" t="s">
-        <v>937</v>
+        <v>923</v>
       </c>
       <c r="H20" t="s">
-        <v>938</v>
+        <v>924</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>1055</v>
+        <v>1041</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="12.75">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="19" t="s">
-        <v>1009</v>
+        <v>995</v>
       </c>
       <c r="B21" t="s">
         <v>31</v>
@@ -9745,70 +9769,70 @@
         <v>14</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>1056</v>
+        <v>1042</v>
       </c>
       <c r="F21" t="s">
         <v>91</v>
       </c>
       <c r="G21" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="H21" t="s">
-        <v>940</v>
+        <v>926</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>1010</v>
+        <v>996</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="12.75">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="19" t="s">
-        <v>1011</v>
+        <v>997</v>
       </c>
       <c r="B22" t="s">
         <v>73</v>
       </c>
       <c r="G22" t="s">
-        <v>941</v>
+        <v>927</v>
       </c>
       <c r="H22" t="s">
-        <v>942</v>
+        <v>928</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>1012</v>
+        <v>998</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="12.75">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="19" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="B23" t="s">
         <v>73</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="G23" t="s">
-        <v>943</v>
+        <v>929</v>
       </c>
       <c r="H23" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="L23" s="19" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="12.75">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="19" t="s">
-        <v>1016</v>
+        <v>1002</v>
       </c>
       <c r="C24" t="s">
         <v>89</v>
@@ -9817,87 +9841,87 @@
         <v>14</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>1057</v>
+        <v>1043</v>
       </c>
       <c r="F24" t="s">
         <v>101</v>
       </c>
       <c r="G24" t="s">
-        <v>945</v>
+        <v>931</v>
       </c>
       <c r="H24" t="s">
-        <v>946</v>
+        <v>932</v>
       </c>
       <c r="L24" s="19" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="12.75">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="19" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>1058</v>
+        <v>1044</v>
       </c>
       <c r="F25" t="s">
         <v>101</v>
       </c>
       <c r="G25" t="s">
-        <v>947</v>
+        <v>933</v>
       </c>
       <c r="H25" t="s">
-        <v>948</v>
+        <v>934</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="12.75">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="19" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="F26" t="s">
         <v>101</v>
       </c>
       <c r="G26" t="s">
-        <v>949</v>
+        <v>935</v>
       </c>
       <c r="H26" t="s">
-        <v>950</v>
+        <v>936</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="12.75">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="19" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
       <c r="F27" t="s">
         <v>101</v>
       </c>
       <c r="G27" t="s">
-        <v>951</v>
+        <v>937</v>
       </c>
       <c r="H27" t="s">
-        <v>952</v>
+        <v>938</v>
       </c>
       <c r="L27" s="19" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="12.75">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="19" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
@@ -9909,87 +9933,87 @@
         <v>14</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>1059</v>
+        <v>1045</v>
       </c>
       <c r="F28" t="s">
         <v>101</v>
       </c>
       <c r="G28" t="s">
-        <v>953</v>
+        <v>939</v>
       </c>
       <c r="H28" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="L28" s="19" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="12.75">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="19" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G29" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="H29" t="s">
-        <v>956</v>
+        <v>942</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="12.75">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="19" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
       <c r="B30" t="s">
         <v>44</v>
       </c>
       <c r="G30" t="s">
-        <v>957</v>
+        <v>943</v>
       </c>
       <c r="H30" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="12.75">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="19" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
       <c r="B31" t="s">
         <v>44</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>983</v>
+        <v>969</v>
       </c>
       <c r="G31" t="s">
-        <v>959</v>
+        <v>945</v>
       </c>
       <c r="H31" t="s">
-        <v>960</v>
+        <v>946</v>
       </c>
       <c r="L31" s="19" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="12.75">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="19" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
@@ -9998,105 +10022,104 @@
         <v>119</v>
       </c>
       <c r="G32" t="s">
-        <v>961</v>
+        <v>947</v>
       </c>
       <c r="H32" t="s">
-        <v>962</v>
+        <v>948</v>
       </c>
       <c r="J32" s="19" t="s">
-        <v>1031</v>
+        <v>1017</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>1032</v>
+        <v>1018</v>
       </c>
       <c r="L32" s="19" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="12.75">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="19" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="B33" t="s">
         <v>73</v>
       </c>
       <c r="G33" t="s">
-        <v>963</v>
+        <v>949</v>
       </c>
       <c r="H33" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="12.75">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="19" t="s">
-        <v>1034</v>
+        <v>1020</v>
       </c>
       <c r="B34" t="s">
         <v>73</v>
       </c>
       <c r="G34" t="s">
-        <v>965</v>
+        <v>951</v>
       </c>
       <c r="H34" t="s">
-        <v>966</v>
+        <v>952</v>
       </c>
       <c r="J34" s="19" t="s">
-        <v>1035</v>
+        <v>1021</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
       <c r="L34" s="19" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="12.75">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="19" t="s">
-        <v>1036</v>
+        <v>1022</v>
       </c>
       <c r="B35" t="s">
         <v>73</v>
       </c>
       <c r="G35" t="s">
-        <v>967</v>
+        <v>953</v>
       </c>
       <c r="H35" t="s">
-        <v>968</v>
+        <v>954</v>
       </c>
       <c r="J35" s="19" t="s">
-        <v>1037</v>
+        <v>1023</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
       <c r="L35" s="19" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="12.75">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="19" t="s">
-        <v>1038</v>
+        <v>1024</v>
       </c>
       <c r="B36" t="s">
         <v>73</v>
       </c>
       <c r="G36" t="s">
-        <v>969</v>
+        <v>955</v>
       </c>
       <c r="H36" t="s">
-        <v>970</v>
+        <v>956</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>1039</v>
+        <v>1025</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
       <c r="L36" s="19" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="12.75"/>
+        <v>708</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
@@ -10105,71 +10128,55 @@
     <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
     <hyperlink ref="H3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
     <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="H4" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="H5" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="H6" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="H7" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="H8" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="H9" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="H10" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="H11" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="H12" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="H13" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="H14" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="H15" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="H16" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="H17" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="H18" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="H19" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="H20" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="H21" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="H22" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="G23" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="H23" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="G24" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="H24" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="G25" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="H25" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="G26" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="H26" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="G27" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="H27" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="G28" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="H28" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="G29" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="H29" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="G30" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="H30" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="G31" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="H31" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="G32" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="H32" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="G33" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="H33" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="G34" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="H34" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="G35" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="H35" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="G36" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="H36" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="G5" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="H5" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="G6" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="G7" r:id="rId9" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="H7" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="G8" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="H8" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="G9" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="H9" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="G10" r:id="rId15" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="H10" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="G11" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="H11" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="G12" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="H12" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="G13" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="H13" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="G14" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="G15" r:id="rId24" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="H15" r:id="rId25" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="G16" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="H16" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="G17" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="H17" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="G18" r:id="rId30" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="G19" r:id="rId31" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="G20" r:id="rId32" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="G21" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="G22" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="G23" r:id="rId35" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="H23" r:id="rId36" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="G24" r:id="rId37" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="G25" r:id="rId38" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="G26" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="G27" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="H27" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="G28" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="H28" r:id="rId43" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="G29" r:id="rId44" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="H29" r:id="rId45" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="G30" r:id="rId46" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="G31" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="G32" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="H32" r:id="rId49" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="G33" r:id="rId50" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="G34" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="G35" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="H35" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="G36" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10244,7 +10251,7 @@
         <v>135</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>93</v>
@@ -10253,7 +10260,7 @@
         <v>136</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>137</v>
@@ -10272,7 +10279,7 @@
         <v>139</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>140</v>
@@ -10281,9 +10288,9 @@
         <v>136</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="F3" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>141</v>
       </c>
       <c r="G3" s="9"/>
@@ -10299,7 +10306,7 @@
         <v>143</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>144</v>
@@ -10310,7 +10317,7 @@
       <c r="E4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="J4" s="9"/>
@@ -10324,7 +10331,7 @@
         <v>147</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>148</v>
@@ -10333,9 +10340,9 @@
         <v>136</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="F5" s="24"/>
+        <v>478</v>
+      </c>
+      <c r="F5" s="25"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="J5" s="9"/>
@@ -10349,7 +10356,7 @@
         <v>150</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>151</v>
@@ -10358,7 +10365,7 @@
         <v>136</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>152</v>
@@ -10376,7 +10383,7 @@
         <v>154</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>155</v>
@@ -10385,7 +10392,7 @@
         <v>136</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>156</v>
@@ -10403,7 +10410,7 @@
         <v>158</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>159</v>
@@ -10412,7 +10419,7 @@
         <v>136</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>160</v>
@@ -10430,7 +10437,7 @@
         <v>162</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>163</v>
@@ -10457,7 +10464,7 @@
         <v>166</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>167</v>
@@ -10466,7 +10473,7 @@
         <v>136</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>168</v>
@@ -10482,7 +10489,7 @@
         <v>169</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>29</v>
@@ -10491,7 +10498,7 @@
         <v>136</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -10506,7 +10513,7 @@
         <v>171</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>172</v>
@@ -10515,7 +10522,7 @@
         <v>136</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>173</v>
@@ -10537,7 +10544,7 @@
         <v>176</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>163</v>
@@ -10546,7 +10553,7 @@
         <v>136</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>177</v>
@@ -10562,7 +10569,7 @@
         <v>178</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>18</v>
@@ -10571,7 +10578,7 @@
         <v>136</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>179</v>
@@ -10589,7 +10596,7 @@
         <v>181</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>182</v>
@@ -10598,7 +10605,7 @@
         <v>136</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>183</v>
@@ -10616,7 +10623,7 @@
         <v>185</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>186</v>
@@ -10625,7 +10632,7 @@
         <v>136</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>187</v>
@@ -10643,7 +10650,7 @@
         <v>189</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>190</v>
@@ -10652,7 +10659,7 @@
         <v>136</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>187</v>
@@ -10670,7 +10677,7 @@
         <v>191</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>192</v>
@@ -10679,7 +10686,7 @@
         <v>136</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>187</v>
@@ -10697,7 +10704,7 @@
         <v>194</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>29</v>
@@ -10721,7 +10728,7 @@
         <v>196</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>23</v>
@@ -10749,7 +10756,7 @@
         <v>199</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>200</v>
@@ -10758,7 +10765,7 @@
         <v>136</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>201</v>
@@ -10776,7 +10783,7 @@
         <v>203</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>167</v>
@@ -10785,7 +10792,7 @@
         <v>136</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>204</v>
@@ -10801,7 +10808,7 @@
         <v>205</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>140</v>
@@ -10810,7 +10817,7 @@
         <v>136</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>206</v>
@@ -10826,7 +10833,7 @@
         <v>207</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>208</v>
@@ -10835,7 +10842,7 @@
         <v>136</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>209</v>
@@ -10851,7 +10858,7 @@
         <v>210</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>211</v>
@@ -10876,7 +10883,7 @@
         <v>213</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>214</v>
@@ -10898,7 +10905,7 @@
         <v>215</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>216</v>
@@ -10907,7 +10914,7 @@
         <v>136</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>160</v>
@@ -10935,7 +10942,7 @@
         <v>222</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>223</v>
@@ -10972,7 +10979,7 @@
         <v>226</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>167</v>
@@ -10981,7 +10988,7 @@
         <v>136</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>227</v>
@@ -11009,7 +11016,7 @@
         <v>230</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>231</v>
@@ -11018,7 +11025,7 @@
         <v>136</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>232</v>
@@ -11046,7 +11053,7 @@
         <v>238</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>239</v>
@@ -11083,7 +11090,7 @@
         <v>245</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>246</v>
@@ -11092,7 +11099,7 @@
         <v>136</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>227</v>
@@ -11120,7 +11127,7 @@
         <v>251</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>252</v>
@@ -11129,7 +11136,7 @@
         <v>136</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>253</v>
@@ -11157,7 +11164,7 @@
         <v>259</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>252</v>
@@ -11166,7 +11173,7 @@
         <v>136</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>260</v>
@@ -11194,7 +11201,7 @@
         <v>265</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>252</v>
@@ -11203,7 +11210,7 @@
         <v>136</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>266</v>
@@ -11231,7 +11238,7 @@
         <v>272</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>29</v>
@@ -11240,7 +11247,7 @@
         <v>136</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>273</v>
@@ -11267,7 +11274,7 @@
         <v>278</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>279</v>
@@ -11276,7 +11283,7 @@
         <v>136</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>280</v>
@@ -11304,7 +11311,7 @@
         <v>284</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>279</v>
@@ -11313,7 +11320,7 @@
         <v>136</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>285</v>
@@ -11341,7 +11348,7 @@
         <v>289</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>290</v>
@@ -11350,7 +11357,7 @@
         <v>136</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>291</v>
@@ -11378,7 +11385,7 @@
         <v>294</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>290</v>
@@ -11387,7 +11394,7 @@
         <v>136</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>295</v>
@@ -11415,7 +11422,7 @@
         <v>299</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>290</v>
@@ -11452,7 +11459,7 @@
         <v>305</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>290</v>
@@ -11461,7 +11468,7 @@
         <v>136</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>306</v>
@@ -11489,7 +11496,7 @@
         <v>309</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>290</v>
@@ -11498,7 +11505,7 @@
         <v>136</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>310</v>
@@ -11522,7 +11529,7 @@
         <v>314</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>290</v>
@@ -11555,7 +11562,7 @@
         <v>320</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>321</v>
@@ -11588,7 +11595,7 @@
         <v>325</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>326</v>
@@ -11597,7 +11604,7 @@
         <v>136</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>327</v>
@@ -11621,7 +11628,7 @@
         <v>330</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>290</v>
@@ -11630,7 +11637,7 @@
         <v>136</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>331</v>
@@ -11654,7 +11661,7 @@
         <v>333</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>290</v>
@@ -11663,7 +11670,7 @@
         <v>136</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>334</v>
@@ -11681,7 +11688,7 @@
         <v>335</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>290</v>
@@ -11690,7 +11697,7 @@
         <v>136</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>336</v>
@@ -11714,7 +11721,7 @@
         <v>340</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>341</v>
@@ -11723,7 +11730,7 @@
         <v>136</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>342</v>
@@ -11745,7 +11752,7 @@
         <v>345</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>346</v>
@@ -11774,7 +11781,7 @@
         <v>349</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>346</v>
@@ -11807,7 +11814,7 @@
         <v>353</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>354</v>
@@ -11816,7 +11823,7 @@
         <v>136</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
@@ -11829,7 +11836,7 @@
         <v>355</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>356</v>
@@ -11854,7 +11861,7 @@
         <v>360</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>356</v>
@@ -11881,7 +11888,7 @@
         <v>363</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>356</v>
@@ -11909,7 +11916,7 @@
         <v>368</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>346</v>
@@ -13243,74 +13250,92 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="53"/>
     <col min="2" max="14" width="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="12.75">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="12.75">
-      <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="19" t="s">
+        <v>675</v>
+      </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
+        <v>567</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>676</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I2" t="s">
-        <v>388</v>
-      </c>
-      <c r="J2" t="s">
-        <v>133</v>
-      </c>
-      <c r="K2" t="s">
-        <v>389</v>
-      </c>
-      <c r="L2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="12.75">
+        <v>568</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>677</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="19" t="s">
-        <v>678</v>
+        <v>1059</v>
       </c>
       <c r="B3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>679</v>
@@ -13319,7 +13344,7 @@
         <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>680</v>
@@ -13328,12 +13353,12 @@
         <v>681</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="12.75">
+    <row r="4" spans="1:14">
       <c r="A4" s="19" t="s">
         <v>682</v>
       </c>
       <c r="B4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>683</v>
@@ -13342,67 +13367,67 @@
         <v>136</v>
       </c>
       <c r="E4" t="s">
+        <v>572</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="19" t="s">
+        <v>685</v>
+      </c>
+      <c r="B5" t="s">
         <v>573</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>684</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="12.75">
-      <c r="A5" s="19" t="s">
+      <c r="C5" s="19" t="s">
         <v>686</v>
-      </c>
-      <c r="B5" t="s">
-        <v>574</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>687</v>
       </c>
       <c r="D5" t="s">
         <v>136</v>
       </c>
       <c r="E5" t="s">
+        <v>574</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="B6" t="s">
         <v>575</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>684</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="12.75">
-      <c r="A6" s="19" t="s">
+      <c r="C6" s="19" t="s">
         <v>689</v>
-      </c>
-      <c r="B6" t="s">
-        <v>576</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>690</v>
       </c>
       <c r="D6" t="s">
         <v>136</v>
       </c>
       <c r="E6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="M6" s="19" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="12.75">
+    <row r="7" spans="1:14">
       <c r="A7" s="19" t="s">
         <v>692</v>
       </c>
       <c r="B7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>693</v>
@@ -13411,7 +13436,7 @@
         <v>136</v>
       </c>
       <c r="E7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>694</v>
@@ -13420,12 +13445,12 @@
         <v>695</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="12.75">
+    <row r="8" spans="1:14">
       <c r="A8" s="19" t="s">
         <v>696</v>
       </c>
       <c r="B8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>697</v>
@@ -13434,7 +13459,7 @@
         <v>136</v>
       </c>
       <c r="E8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>698</v>
@@ -13443,12 +13468,12 @@
         <v>699</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="12.75">
+    <row r="9" spans="1:14">
       <c r="A9" s="19" t="s">
         <v>700</v>
       </c>
       <c r="B9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>701</v>
@@ -13457,7 +13482,7 @@
         <v>136</v>
       </c>
       <c r="E9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>702</v>
@@ -13466,12 +13491,12 @@
         <v>703</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="12.75">
+    <row r="10" spans="1:14">
       <c r="A10" s="19" t="s">
         <v>704</v>
       </c>
       <c r="B10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>705</v>
@@ -13480,770 +13505,782 @@
         <v>136</v>
       </c>
       <c r="E10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>706</v>
       </c>
-      <c r="M10" s="19" t="s">
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="19" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="12.75">
-      <c r="A11" s="19" t="s">
+      <c r="B11" t="s">
+        <v>585</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>708</v>
-      </c>
-      <c r="B11" t="s">
-        <v>586</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>709</v>
       </c>
       <c r="D11" t="s">
         <v>136</v>
       </c>
       <c r="E11" t="s">
+        <v>586</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="19" t="s">
+        <v>710</v>
+      </c>
+      <c r="B12" t="s">
         <v>587</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="12.75">
-      <c r="A12" s="19" t="s">
+      <c r="C12" s="19" t="s">
         <v>711</v>
-      </c>
-      <c r="B12" t="s">
-        <v>588</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>712</v>
       </c>
       <c r="D12" t="s">
         <v>136</v>
       </c>
       <c r="E12" t="s">
-        <v>589</v>
+        <v>588</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>712</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>387</v>
       </c>
       <c r="M12" s="19" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="12.75">
+    <row r="13" spans="1:14">
       <c r="A13" s="19" t="s">
-        <v>714</v>
+        <v>1060</v>
       </c>
       <c r="B13" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="D13" t="s">
         <v>136</v>
       </c>
       <c r="E13" t="s">
+        <v>590</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="19" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B14" t="s">
         <v>591</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>716</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" t="s">
-        <v>390</v>
-      </c>
-      <c r="M13" s="19" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="12.75">
-      <c r="A14" s="19" t="s">
-        <v>718</v>
-      </c>
-      <c r="B14" t="s">
-        <v>592</v>
-      </c>
       <c r="C14" s="19" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="D14" t="s">
         <v>136</v>
       </c>
       <c r="E14" t="s">
+        <v>592</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>716</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="19" t="s">
+        <v>718</v>
+      </c>
+      <c r="B15" t="s">
         <v>593</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="C15" s="19" t="s">
         <v>719</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="12.75">
-      <c r="A15" s="19" t="s">
-        <v>720</v>
-      </c>
-      <c r="B15" t="s">
-        <v>594</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>721</v>
       </c>
       <c r="D15" t="s">
         <v>136</v>
       </c>
       <c r="E15" t="s">
+        <v>594</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>720</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="19" t="s">
+        <v>722</v>
+      </c>
+      <c r="B16" t="s">
         <v>595</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>722</v>
-      </c>
-      <c r="M15" s="19" t="s">
+      <c r="C16" s="19" t="s">
         <v>723</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="12.75">
-      <c r="A16" s="19" t="s">
-        <v>724</v>
-      </c>
-      <c r="B16" t="s">
-        <v>596</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>725</v>
       </c>
       <c r="D16" t="s">
         <v>136</v>
       </c>
       <c r="E16" t="s">
+        <v>596</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>724</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="19" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B17" t="s">
         <v>597</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="C17" s="19" t="s">
         <v>726</v>
-      </c>
-      <c r="M16" s="19" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="12.75">
-      <c r="A17" s="19" t="s">
-        <v>728</v>
-      </c>
-      <c r="B17" t="s">
-        <v>598</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>729</v>
       </c>
       <c r="D17" t="s">
         <v>136</v>
       </c>
       <c r="E17" t="s">
+        <v>598</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>724</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="19" t="s">
+        <v>727</v>
+      </c>
+      <c r="B18" t="s">
         <v>599</v>
       </c>
-      <c r="F17" s="19" t="s">
-        <v>730</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="12.75">
-      <c r="A18" s="19" t="s">
-        <v>732</v>
-      </c>
-      <c r="B18" t="s">
-        <v>600</v>
-      </c>
       <c r="C18" s="19" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="D18" t="s">
         <v>136</v>
       </c>
       <c r="E18" t="s">
+        <v>600</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>724</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="19" t="s">
+        <v>730</v>
+      </c>
+      <c r="B19" t="s">
         <v>601</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>730</v>
-      </c>
-      <c r="M18" s="19" t="s">
+      <c r="C19" s="20" t="s">
         <v>731</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="12.75">
-      <c r="A19" s="19" t="s">
-        <v>734</v>
-      </c>
-      <c r="B19" t="s">
-        <v>602</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>735</v>
       </c>
       <c r="D19" t="s">
         <v>136</v>
       </c>
       <c r="E19" t="s">
+        <v>602</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="19" t="s">
+        <v>733</v>
+      </c>
+      <c r="B20" t="s">
         <v>603</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>730</v>
-      </c>
-      <c r="M19" s="19" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="12.75">
-      <c r="A20" s="19" t="s">
-        <v>737</v>
-      </c>
-      <c r="B20" t="s">
-        <v>604</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>738</v>
+      <c r="C20" s="19" t="s">
+        <v>734</v>
       </c>
       <c r="D20" t="s">
         <v>136</v>
       </c>
       <c r="E20" t="s">
+        <v>604</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>735</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="19" t="s">
+        <v>737</v>
+      </c>
+      <c r="B21" t="s">
         <v>605</v>
       </c>
-      <c r="M20" s="19" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="12.75">
-      <c r="A21" s="19" t="s">
-        <v>740</v>
-      </c>
-      <c r="B21" t="s">
-        <v>606</v>
-      </c>
       <c r="C21" s="19" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D21" t="s">
         <v>136</v>
       </c>
       <c r="E21" t="s">
+        <v>606</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>739</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="19" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B22" t="s">
         <v>607</v>
       </c>
-      <c r="F21" s="19" t="s">
-        <v>742</v>
-      </c>
-      <c r="M21" s="19" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="12.75">
-      <c r="A22" s="19" t="s">
-        <v>744</v>
-      </c>
-      <c r="B22" t="s">
-        <v>608</v>
-      </c>
       <c r="C22" s="19" t="s">
-        <v>745</v>
+        <v>705</v>
       </c>
       <c r="D22" t="s">
         <v>136</v>
       </c>
       <c r="E22" t="s">
+        <v>608</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="19" t="s">
+        <v>742</v>
+      </c>
+      <c r="B23" t="s">
         <v>609</v>
       </c>
-      <c r="F22" s="19" t="s">
-        <v>746</v>
-      </c>
-      <c r="M22" s="19" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="12.75">
-      <c r="A23" s="19" t="s">
-        <v>748</v>
-      </c>
-      <c r="B23" t="s">
-        <v>610</v>
-      </c>
       <c r="C23" s="19" t="s">
-        <v>709</v>
+        <v>679</v>
       </c>
       <c r="D23" t="s">
         <v>136</v>
       </c>
       <c r="E23" t="s">
+        <v>610</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="19" t="s">
+        <v>744</v>
+      </c>
+      <c r="B24" t="s">
         <v>611</v>
       </c>
-      <c r="F23" s="19" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="12.75">
-      <c r="A24" s="19" t="s">
-        <v>750</v>
-      </c>
-      <c r="B24" t="s">
-        <v>612</v>
-      </c>
       <c r="C24" s="19" t="s">
-        <v>683</v>
+        <v>745</v>
       </c>
       <c r="D24" t="s">
         <v>136</v>
       </c>
       <c r="E24" t="s">
+        <v>612</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="19" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B25" t="s">
         <v>613</v>
       </c>
-      <c r="F24" s="19" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="12.75">
-      <c r="A25" s="19" t="s">
-        <v>752</v>
-      </c>
-      <c r="B25" t="s">
-        <v>614</v>
-      </c>
       <c r="C25" s="19" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D25" t="s">
         <v>136</v>
       </c>
       <c r="E25" t="s">
+        <v>614</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="B26" t="s">
         <v>615</v>
       </c>
-      <c r="F25" s="19" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="12.75">
-      <c r="A26" s="19" t="s">
-        <v>755</v>
-      </c>
-      <c r="B26" t="s">
-        <v>616</v>
-      </c>
       <c r="C26" s="19" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D26" t="s">
         <v>136</v>
       </c>
       <c r="E26" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="19" t="s">
+        <v>751</v>
+      </c>
+      <c r="B27" t="s">
         <v>617</v>
       </c>
-      <c r="F26" s="19" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="12.75">
-      <c r="A27" s="19" t="s">
-        <v>758</v>
-      </c>
-      <c r="B27" t="s">
-        <v>618</v>
-      </c>
       <c r="C27" s="19" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="D27" t="s">
         <v>136</v>
       </c>
       <c r="E27" t="s">
+        <v>618</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="H27" t="s">
+        <v>217</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>753</v>
+      </c>
+      <c r="J27" t="s">
+        <v>388</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>754</v>
+      </c>
+      <c r="M27" s="19" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="19" t="s">
+        <v>756</v>
+      </c>
+      <c r="B28" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="12.75">
-      <c r="A28" s="19" t="s">
-        <v>760</v>
-      </c>
-      <c r="B28" t="s">
-        <v>620</v>
-      </c>
       <c r="C28" s="19" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="D28" t="s">
         <v>136</v>
       </c>
       <c r="E28" t="s">
+        <v>620</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="H28" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>758</v>
+      </c>
+      <c r="J28" t="s">
+        <v>224</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>759</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="19" t="s">
+        <v>761</v>
+      </c>
+      <c r="B29" t="s">
         <v>621</v>
       </c>
-      <c r="F28" s="19" t="s">
-        <v>702</v>
-      </c>
-      <c r="H28" t="s">
-        <v>217</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>762</v>
-      </c>
-      <c r="J28" t="s">
-        <v>391</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>763</v>
-      </c>
-      <c r="M28" s="19" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="12.75">
-      <c r="A29" s="19" t="s">
-        <v>765</v>
-      </c>
-      <c r="B29" t="s">
-        <v>622</v>
-      </c>
       <c r="C29" s="19" t="s">
-        <v>766</v>
+        <v>705</v>
       </c>
       <c r="D29" t="s">
         <v>136</v>
       </c>
       <c r="E29" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>702</v>
+        <v>762</v>
       </c>
       <c r="H29" t="s">
         <v>89</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="J29" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="12.75">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="19" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B30" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>709</v>
+        <v>766</v>
       </c>
       <c r="D30" t="s">
         <v>136</v>
       </c>
       <c r="E30" t="s">
+        <v>624</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>767</v>
+      </c>
+      <c r="H30" t="s">
+        <v>389</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>768</v>
+      </c>
+      <c r="J30" t="s">
+        <v>390</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>769</v>
+      </c>
+      <c r="M30" s="19" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="19" t="s">
+        <v>771</v>
+      </c>
+      <c r="B31" t="s">
         <v>625</v>
       </c>
-      <c r="F30" s="19" t="s">
-        <v>771</v>
-      </c>
-      <c r="H30" t="s">
-        <v>89</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>767</v>
-      </c>
-      <c r="J30" t="s">
-        <v>228</v>
-      </c>
-      <c r="K30" s="19" t="s">
+      <c r="C31" s="19" t="s">
         <v>772</v>
-      </c>
-      <c r="M30" s="19" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="12.75">
-      <c r="A31" s="19" t="s">
-        <v>774</v>
-      </c>
-      <c r="B31" t="s">
-        <v>626</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>775</v>
       </c>
       <c r="D31" t="s">
         <v>136</v>
       </c>
       <c r="E31" t="s">
+        <v>626</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>773</v>
+      </c>
+      <c r="H31" t="s">
+        <v>217</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>774</v>
+      </c>
+      <c r="J31" t="s">
+        <v>391</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>775</v>
+      </c>
+      <c r="M31" s="19" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="19" t="s">
+        <v>777</v>
+      </c>
+      <c r="B32" t="s">
         <v>627</v>
       </c>
-      <c r="F31" s="19" t="s">
-        <v>776</v>
-      </c>
-      <c r="H31" t="s">
-        <v>392</v>
-      </c>
-      <c r="I31" s="19" t="s">
-        <v>777</v>
-      </c>
-      <c r="J31" t="s">
-        <v>393</v>
-      </c>
-      <c r="K31" s="19" t="s">
+      <c r="C32" s="19" t="s">
         <v>778</v>
-      </c>
-      <c r="M31" s="19" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="12.75">
-      <c r="A32" s="19" t="s">
-        <v>780</v>
-      </c>
-      <c r="B32" t="s">
-        <v>628</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>781</v>
       </c>
       <c r="D32" t="s">
         <v>136</v>
       </c>
       <c r="E32" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>782</v>
+        <v>762</v>
       </c>
       <c r="H32" t="s">
         <v>217</v>
       </c>
       <c r="I32" s="19" t="s">
+        <v>779</v>
+      </c>
+      <c r="J32" t="s">
+        <v>392</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>780</v>
+      </c>
+      <c r="M32" s="19" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="19" t="s">
+        <v>782</v>
+      </c>
+      <c r="B33" t="s">
+        <v>629</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>783</v>
-      </c>
-      <c r="J32" t="s">
-        <v>394</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>784</v>
-      </c>
-      <c r="M32" s="19" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="12.75">
-      <c r="A33" s="19" t="s">
-        <v>786</v>
-      </c>
-      <c r="B33" t="s">
-        <v>630</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>787</v>
       </c>
       <c r="D33" t="s">
         <v>136</v>
       </c>
       <c r="E33" t="s">
+        <v>630</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>784</v>
+      </c>
+      <c r="H33" t="s">
+        <v>254</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>785</v>
+      </c>
+      <c r="J33" t="s">
+        <v>393</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>786</v>
+      </c>
+      <c r="M33" s="19" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="19" t="s">
+        <v>788</v>
+      </c>
+      <c r="B34" t="s">
         <v>631</v>
       </c>
-      <c r="F33" s="19" t="s">
-        <v>771</v>
-      </c>
-      <c r="H33" t="s">
-        <v>217</v>
-      </c>
-      <c r="I33" s="19" t="s">
-        <v>788</v>
-      </c>
-      <c r="J33" t="s">
-        <v>395</v>
-      </c>
-      <c r="K33" s="19" t="s">
-        <v>789</v>
-      </c>
-      <c r="M33" s="19" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="12.75">
-      <c r="A34" s="19" t="s">
-        <v>791</v>
-      </c>
-      <c r="B34" t="s">
-        <v>632</v>
-      </c>
       <c r="C34" s="19" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="D34" t="s">
         <v>136</v>
       </c>
       <c r="E34" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="H34" t="s">
         <v>254</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="J34" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="M34" s="19" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="12.75">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="19" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B35" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="D35" t="s">
         <v>136</v>
       </c>
       <c r="E35" t="s">
+        <v>634</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>793</v>
+      </c>
+      <c r="H35" t="s">
+        <v>267</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="J35" t="s">
+        <v>395</v>
+      </c>
+      <c r="K35" s="19" t="s">
+        <v>1066</v>
+      </c>
+      <c r="M35" s="19" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="19" t="s">
+        <v>796</v>
+      </c>
+      <c r="B36" t="s">
         <v>635</v>
       </c>
-      <c r="F35" s="19" t="s">
-        <v>798</v>
-      </c>
-      <c r="H35" t="s">
-        <v>254</v>
-      </c>
-      <c r="I35" s="19" t="s">
-        <v>799</v>
-      </c>
-      <c r="J35" t="s">
-        <v>397</v>
-      </c>
-      <c r="K35" s="19" t="s">
-        <v>800</v>
-      </c>
-      <c r="M35" s="19" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="12.75">
-      <c r="A36" s="19" t="s">
-        <v>802</v>
-      </c>
-      <c r="B36" t="s">
-        <v>636</v>
-      </c>
       <c r="C36" s="19" t="s">
-        <v>792</v>
+        <v>708</v>
       </c>
       <c r="D36" t="s">
         <v>136</v>
       </c>
       <c r="E36" t="s">
+        <v>636</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>797</v>
+      </c>
+      <c r="H36" t="s">
+        <v>396</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>798</v>
+      </c>
+      <c r="J36" t="s">
+        <v>397</v>
+      </c>
+      <c r="K36" s="19" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="19" t="s">
+        <v>800</v>
+      </c>
+      <c r="B37" t="s">
         <v>637</v>
       </c>
-      <c r="F36" s="19" t="s">
-        <v>803</v>
-      </c>
-      <c r="H36" t="s">
-        <v>267</v>
-      </c>
-      <c r="I36" s="19" t="s">
-        <v>804</v>
-      </c>
-      <c r="J36" t="s">
-        <v>398</v>
-      </c>
-      <c r="K36" s="19" t="s">
-        <v>805</v>
-      </c>
-      <c r="M36" s="19" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="12.75">
-      <c r="A37" s="19" t="s">
-        <v>807</v>
-      </c>
-      <c r="B37" t="s">
-        <v>638</v>
-      </c>
       <c r="C37" s="19" t="s">
-        <v>712</v>
+        <v>801</v>
       </c>
       <c r="D37" t="s">
         <v>136</v>
       </c>
       <c r="E37" t="s">
+        <v>638</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>802</v>
+      </c>
+      <c r="H37" t="s">
+        <v>267</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>803</v>
+      </c>
+      <c r="J37" t="s">
+        <v>395</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>804</v>
+      </c>
+      <c r="M37" s="19" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="19" t="s">
+        <v>806</v>
+      </c>
+      <c r="B38" t="s">
         <v>639</v>
       </c>
-      <c r="F37" s="19" t="s">
-        <v>808</v>
-      </c>
-      <c r="H37" t="s">
-        <v>399</v>
-      </c>
-      <c r="I37" s="19" t="s">
-        <v>809</v>
-      </c>
-      <c r="J37" t="s">
-        <v>400</v>
-      </c>
-      <c r="K37" s="19" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="12.75">
-      <c r="A38" s="19" t="s">
-        <v>811</v>
-      </c>
-      <c r="B38" t="s">
-        <v>640</v>
-      </c>
       <c r="C38" s="19" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="D38" t="s">
         <v>136</v>
       </c>
       <c r="E38" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="H38" t="s">
         <v>267</v>
       </c>
       <c r="I38" s="19" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="J38" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="M38" s="19" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="12.75">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="19" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="B39" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>812</v>
@@ -14252,249 +14289,246 @@
         <v>136</v>
       </c>
       <c r="E39" t="s">
+        <v>642</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>813</v>
+      </c>
+      <c r="H39" t="s">
+        <v>217</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>814</v>
+      </c>
+      <c r="J39" t="s">
+        <v>395</v>
+      </c>
+      <c r="K39" s="19" t="s">
+        <v>809</v>
+      </c>
+      <c r="M39" s="19" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="19" t="s">
+        <v>816</v>
+      </c>
+      <c r="B40" t="s">
         <v>643</v>
       </c>
-      <c r="F39" s="19" t="s">
-        <v>818</v>
-      </c>
-      <c r="H39" t="s">
-        <v>267</v>
-      </c>
-      <c r="I39" s="19" t="s">
-        <v>819</v>
-      </c>
-      <c r="J39" t="s">
-        <v>398</v>
-      </c>
-      <c r="K39" s="19" t="s">
-        <v>820</v>
-      </c>
-      <c r="M39" s="19" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="12.75">
-      <c r="A40" s="19" t="s">
-        <v>822</v>
-      </c>
-      <c r="B40" t="s">
-        <v>644</v>
-      </c>
       <c r="C40" s="19" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="D40" t="s">
         <v>136</v>
       </c>
       <c r="E40" t="s">
+        <v>644</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>817</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>818</v>
+      </c>
+      <c r="J40" t="s">
+        <v>224</v>
+      </c>
+      <c r="K40" s="19" t="s">
+        <v>819</v>
+      </c>
+      <c r="M40" s="19" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="19" t="s">
+        <v>821</v>
+      </c>
+      <c r="B41" t="s">
         <v>645</v>
       </c>
-      <c r="F40" s="19" t="s">
-        <v>824</v>
-      </c>
-      <c r="H40" t="s">
-        <v>217</v>
-      </c>
-      <c r="I40" s="19" t="s">
-        <v>825</v>
-      </c>
-      <c r="J40" t="s">
-        <v>398</v>
-      </c>
-      <c r="K40" s="19" t="s">
-        <v>820</v>
-      </c>
-      <c r="M40" s="19" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="12.75">
-      <c r="A41" s="19" t="s">
-        <v>827</v>
-      </c>
-      <c r="B41" t="s">
-        <v>646</v>
-      </c>
       <c r="C41" s="19" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="D41" t="s">
         <v>136</v>
       </c>
       <c r="E41" t="s">
+        <v>646</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>822</v>
+      </c>
+      <c r="H41" t="s">
+        <v>254</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>823</v>
+      </c>
+      <c r="J41" t="s">
+        <v>398</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="M41" s="19" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="19" t="s">
+        <v>825</v>
+      </c>
+      <c r="B42" t="s">
         <v>647</v>
       </c>
-      <c r="F41" s="19" t="s">
-        <v>828</v>
-      </c>
-      <c r="H41" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="19" t="s">
-        <v>829</v>
-      </c>
-      <c r="J41" t="s">
-        <v>224</v>
-      </c>
-      <c r="K41" s="19" t="s">
-        <v>830</v>
-      </c>
-      <c r="M41" s="19" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="12.75">
-      <c r="A42" s="19" t="s">
-        <v>832</v>
-      </c>
-      <c r="B42" t="s">
-        <v>648</v>
-      </c>
       <c r="C42" s="19" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="D42" t="s">
         <v>136</v>
       </c>
       <c r="E42" t="s">
+        <v>648</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>826</v>
+      </c>
+      <c r="H42" t="s">
+        <v>267</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>827</v>
+      </c>
+      <c r="J42" t="s">
+        <v>224</v>
+      </c>
+      <c r="K42" s="19" t="s">
+        <v>819</v>
+      </c>
+      <c r="M42" s="19" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="19" t="s">
+        <v>829</v>
+      </c>
+      <c r="B43" t="s">
         <v>649</v>
       </c>
-      <c r="F42" s="19" t="s">
-        <v>833</v>
-      </c>
-      <c r="H42" t="s">
-        <v>254</v>
-      </c>
-      <c r="I42" s="19" t="s">
-        <v>834</v>
-      </c>
-      <c r="J42" t="s">
-        <v>401</v>
-      </c>
-      <c r="K42" s="19" t="s">
-        <v>835</v>
-      </c>
-      <c r="M42" s="19" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="12.75">
-      <c r="A43" s="19" t="s">
-        <v>837</v>
-      </c>
-      <c r="B43" t="s">
-        <v>650</v>
-      </c>
       <c r="C43" s="19" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="D43" t="s">
         <v>136</v>
       </c>
       <c r="E43" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>838</v>
+        <v>830</v>
+      </c>
+      <c r="G43" t="s">
+        <v>311</v>
       </c>
       <c r="H43" t="s">
         <v>267</v>
       </c>
-      <c r="I43" s="19" t="s">
-        <v>839</v>
-      </c>
       <c r="J43" t="s">
-        <v>224</v>
-      </c>
-      <c r="K43" s="19" t="s">
-        <v>830</v>
+        <v>312</v>
       </c>
       <c r="M43" s="19" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="12.75">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="19" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="B44" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="D44" t="s">
         <v>136</v>
       </c>
       <c r="E44" t="s">
+        <v>652</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>833</v>
+      </c>
+      <c r="G44" t="s">
+        <v>399</v>
+      </c>
+      <c r="H44" t="s">
+        <v>317</v>
+      </c>
+      <c r="J44" t="s">
+        <v>400</v>
+      </c>
+      <c r="M44" s="19" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="19" t="s">
+        <v>835</v>
+      </c>
+      <c r="B45" t="s">
         <v>653</v>
       </c>
-      <c r="F44" s="19" t="s">
-        <v>842</v>
-      </c>
-      <c r="G44" t="s">
-        <v>311</v>
-      </c>
-      <c r="H44" t="s">
-        <v>267</v>
-      </c>
-      <c r="J44" t="s">
-        <v>312</v>
-      </c>
-      <c r="M44" s="19" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="12.75">
-      <c r="A45" s="19" t="s">
-        <v>844</v>
-      </c>
-      <c r="B45" t="s">
-        <v>654</v>
-      </c>
       <c r="C45" s="19" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
       <c r="D45" t="s">
         <v>136</v>
       </c>
       <c r="E45" t="s">
+        <v>654</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>837</v>
+      </c>
+      <c r="G45" t="s">
+        <v>311</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" t="s">
+        <v>323</v>
+      </c>
+      <c r="M45" s="19" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="19" t="s">
+        <v>839</v>
+      </c>
+      <c r="B46" t="s">
         <v>655</v>
       </c>
-      <c r="F45" s="19" t="s">
-        <v>845</v>
-      </c>
-      <c r="G45" t="s">
-        <v>402</v>
-      </c>
-      <c r="H45" t="s">
-        <v>317</v>
-      </c>
-      <c r="J45" t="s">
-        <v>403</v>
-      </c>
-      <c r="M45" s="19" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="12.75">
-      <c r="A46" s="19" t="s">
-        <v>847</v>
-      </c>
-      <c r="B46" t="s">
-        <v>656</v>
-      </c>
       <c r="C46" s="19" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="D46" t="s">
         <v>136</v>
       </c>
       <c r="E46" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="G46" t="s">
         <v>311</v>
@@ -14503,30 +14537,30 @@
         <v>14</v>
       </c>
       <c r="J46" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="M46" s="19" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="12.75">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="19" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="B47" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>852</v>
+        <v>812</v>
       </c>
       <c r="D47" t="s">
         <v>136</v>
       </c>
       <c r="E47" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="G47" t="s">
         <v>311</v>
@@ -14535,488 +14569,443 @@
         <v>14</v>
       </c>
       <c r="J47" t="s">
-        <v>328</v>
+        <v>395</v>
       </c>
       <c r="M47" s="19" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="12.75">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="19" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="B48" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="D48" t="s">
         <v>136</v>
       </c>
       <c r="E48" t="s">
-        <v>661</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>856</v>
+        <v>660</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>846</v>
       </c>
       <c r="G48" t="s">
         <v>311</v>
       </c>
-      <c r="H48" t="s">
-        <v>14</v>
-      </c>
-      <c r="J48" t="s">
-        <v>398</v>
-      </c>
-      <c r="M48" s="19" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="12.75">
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="19" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="B49" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="D49" t="s">
         <v>136</v>
       </c>
       <c r="E49" t="s">
+        <v>662</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>848</v>
+      </c>
+      <c r="G49" t="s">
+        <v>337</v>
+      </c>
+      <c r="H49" t="s">
+        <v>267</v>
+      </c>
+      <c r="J49" t="s">
+        <v>338</v>
+      </c>
+      <c r="M49" s="19" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="19" t="s">
+        <v>850</v>
+      </c>
+      <c r="B50" t="s">
         <v>663</v>
       </c>
-      <c r="F49" s="21" t="s">
-        <v>859</v>
-      </c>
-      <c r="G49" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="12.75">
-      <c r="A50" s="19" t="s">
-        <v>860</v>
-      </c>
-      <c r="B50" t="s">
-        <v>664</v>
-      </c>
       <c r="C50" s="19" t="s">
-        <v>823</v>
+        <v>851</v>
       </c>
       <c r="D50" t="s">
         <v>136</v>
       </c>
       <c r="E50" t="s">
+        <v>664</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="G50" t="s">
+        <v>343</v>
+      </c>
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+      <c r="M50" s="19" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="19" t="s">
+        <v>854</v>
+      </c>
+      <c r="B51" t="s">
         <v>665</v>
       </c>
-      <c r="F50" s="19" t="s">
-        <v>861</v>
-      </c>
-      <c r="G50" t="s">
-        <v>337</v>
-      </c>
-      <c r="H50" t="s">
-        <v>267</v>
-      </c>
-      <c r="J50" t="s">
-        <v>338</v>
-      </c>
-      <c r="M50" s="19" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="12.75">
-      <c r="A51" s="19" t="s">
-        <v>863</v>
-      </c>
-      <c r="B51" t="s">
-        <v>666</v>
-      </c>
       <c r="C51" s="19" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="D51" t="s">
         <v>136</v>
       </c>
       <c r="E51" t="s">
+        <v>666</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>856</v>
+      </c>
+      <c r="H51" t="s">
+        <v>217</v>
+      </c>
+      <c r="M51" s="19" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="19" t="s">
+        <v>858</v>
+      </c>
+      <c r="B52" t="s">
         <v>667</v>
       </c>
-      <c r="F51" s="19" t="s">
-        <v>865</v>
-      </c>
-      <c r="G51" t="s">
-        <v>343</v>
-      </c>
-      <c r="H51" t="s">
-        <v>14</v>
-      </c>
-      <c r="M51" s="19" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="12.75">
-      <c r="A52" s="19" t="s">
-        <v>867</v>
-      </c>
-      <c r="B52" t="s">
-        <v>668</v>
-      </c>
       <c r="C52" s="19" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="D52" t="s">
         <v>136</v>
       </c>
       <c r="E52" t="s">
+        <v>668</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>859</v>
+      </c>
+      <c r="G52" t="s">
+        <v>401</v>
+      </c>
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52" t="s">
+        <v>395</v>
+      </c>
+      <c r="M52" s="19" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="19" t="s">
+        <v>861</v>
+      </c>
+      <c r="B53" t="s">
         <v>669</v>
       </c>
-      <c r="F52" s="19" t="s">
-        <v>869</v>
-      </c>
-      <c r="H52" t="s">
-        <v>217</v>
-      </c>
-      <c r="M52" s="19" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="12.75">
-      <c r="A53" s="19" t="s">
-        <v>871</v>
-      </c>
-      <c r="B53" t="s">
-        <v>670</v>
-      </c>
       <c r="C53" s="19" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="D53" t="s">
         <v>136</v>
       </c>
       <c r="E53" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="19" t="s">
+        <v>863</v>
+      </c>
+      <c r="B54" t="s">
         <v>671</v>
       </c>
-      <c r="F53" s="19" t="s">
-        <v>872</v>
-      </c>
-      <c r="G53" t="s">
-        <v>404</v>
-      </c>
-      <c r="H53" t="s">
-        <v>14</v>
-      </c>
-      <c r="J53" t="s">
-        <v>398</v>
-      </c>
-      <c r="M53" s="19" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="12.75">
-      <c r="A54" s="19" t="s">
-        <v>874</v>
-      </c>
-      <c r="B54" t="s">
-        <v>672</v>
-      </c>
       <c r="C54" s="19" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="D54" t="s">
         <v>136</v>
       </c>
-      <c r="E54" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="12.75">
+      <c r="H54" t="s">
+        <v>357</v>
+      </c>
+      <c r="J54" t="s">
+        <v>402</v>
+      </c>
+      <c r="M54" s="19" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="19" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="B55" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="D55" t="s">
         <v>136</v>
       </c>
+      <c r="F55" s="19" t="s">
+        <v>867</v>
+      </c>
+      <c r="G55" t="s">
+        <v>362</v>
+      </c>
       <c r="H55" t="s">
+        <v>389</v>
+      </c>
+      <c r="J55" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="19" t="s">
+        <v>868</v>
+      </c>
+      <c r="B56" t="s">
+        <v>673</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>864</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>869</v>
+      </c>
+      <c r="G56" t="s">
+        <v>403</v>
+      </c>
+      <c r="H56" t="s">
+        <v>254</v>
+      </c>
+      <c r="J56" t="s">
+        <v>404</v>
+      </c>
+      <c r="M56" s="19" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="19" t="s">
+        <v>871</v>
+      </c>
+      <c r="B57" t="s">
+        <v>674</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>855</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>872</v>
+      </c>
+      <c r="G57" t="s">
+        <v>405</v>
+      </c>
+      <c r="H57" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" t="s">
+        <v>395</v>
+      </c>
+      <c r="M57" s="19" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="19" t="s">
+        <v>874</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>855</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>875</v>
+      </c>
+      <c r="H58" t="s">
         <v>357</v>
       </c>
-      <c r="J55" t="s">
-        <v>405</v>
-      </c>
-      <c r="M55" s="19" t="s">
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="19" t="s">
+        <v>876</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>855</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="G59" t="s">
+        <v>337</v>
+      </c>
+      <c r="H59" t="s">
+        <v>376</v>
+      </c>
+      <c r="J59" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="19" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="12.75">
-      <c r="A56" s="19" t="s">
+      <c r="C60" s="19" t="s">
         <v>879</v>
       </c>
-      <c r="B56" t="s">
-        <v>675</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>877</v>
-      </c>
-      <c r="D56" t="s">
-        <v>136</v>
-      </c>
-      <c r="F56" s="19" t="s">
+      <c r="F60" s="19" t="s">
         <v>880</v>
       </c>
-      <c r="G56" t="s">
-        <v>362</v>
-      </c>
-      <c r="H56" t="s">
-        <v>392</v>
-      </c>
-      <c r="J56" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="12.75">
-      <c r="A57" s="19" t="s">
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="19" t="s">
         <v>881</v>
       </c>
-      <c r="B57" t="s">
-        <v>676</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>877</v>
-      </c>
-      <c r="F57" s="19" t="s">
+      <c r="C61" s="19" t="s">
+        <v>855</v>
+      </c>
+      <c r="F61" s="19" t="s">
         <v>882</v>
       </c>
-      <c r="G57" t="s">
-        <v>406</v>
-      </c>
-      <c r="H57" t="s">
-        <v>254</v>
-      </c>
-      <c r="J57" t="s">
-        <v>407</v>
-      </c>
-      <c r="M57" s="19" t="s">
+      <c r="M61" s="19" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="19" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="12.75">
-      <c r="A58" s="19" t="s">
+      <c r="C62" s="19" t="s">
         <v>884</v>
       </c>
-      <c r="B58" t="s">
-        <v>677</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>868</v>
-      </c>
-      <c r="F58" s="19" t="s">
+      <c r="F62" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="G58" t="s">
-        <v>408</v>
-      </c>
-      <c r="H58" t="s">
-        <v>14</v>
-      </c>
-      <c r="J58" t="s">
-        <v>398</v>
-      </c>
-      <c r="M58" s="19" t="s">
+      <c r="M62" s="19" t="s">
         <v>886</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="12.75">
-      <c r="A59" s="19" t="s">
-        <v>887</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>868</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>888</v>
-      </c>
-      <c r="H59" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="12.75">
-      <c r="A60" s="19" t="s">
-        <v>889</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>868</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>890</v>
-      </c>
-      <c r="G60" t="s">
-        <v>337</v>
-      </c>
-      <c r="H60" t="s">
-        <v>376</v>
-      </c>
-      <c r="J60" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="12.75">
-      <c r="A61" s="19" t="s">
-        <v>891</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>892</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="12.75">
-      <c r="A62" s="19" t="s">
-        <v>894</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>868</v>
-      </c>
-      <c r="F62" s="19" t="s">
-        <v>895</v>
-      </c>
-      <c r="M62" s="19" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="12.75">
-      <c r="A63" s="19" t="s">
-        <v>897</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>898</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>899</v>
-      </c>
-      <c r="M63" s="19" t="s">
-        <v>900</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="E5" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="B6" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="E6" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="B7" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="E7" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="B8" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="E8" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="B9" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
-    <hyperlink ref="E9" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
-    <hyperlink ref="B10" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
-    <hyperlink ref="E10" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
-    <hyperlink ref="B11" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
-    <hyperlink ref="E11" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
-    <hyperlink ref="B12" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
-    <hyperlink ref="E12" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
-    <hyperlink ref="B13" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
-    <hyperlink ref="E13" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
-    <hyperlink ref="B14" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
-    <hyperlink ref="E14" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
-    <hyperlink ref="B15" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
-    <hyperlink ref="E15" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
-    <hyperlink ref="B16" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
-    <hyperlink ref="E16" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
-    <hyperlink ref="B17" r:id="rId29" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
-    <hyperlink ref="E17" r:id="rId30" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
-    <hyperlink ref="B18" r:id="rId31" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
-    <hyperlink ref="E18" r:id="rId32" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
-    <hyperlink ref="B19" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
-    <hyperlink ref="E19" r:id="rId34" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
-    <hyperlink ref="B20" r:id="rId35" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
-    <hyperlink ref="E20" r:id="rId36" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
-    <hyperlink ref="B21" r:id="rId37" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
-    <hyperlink ref="E21" r:id="rId38" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
-    <hyperlink ref="B22" r:id="rId39" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
-    <hyperlink ref="E22" r:id="rId40" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
-    <hyperlink ref="B23" r:id="rId41" xr:uid="{00000000-0004-0000-0300-000028000000}"/>
-    <hyperlink ref="E23" r:id="rId42" xr:uid="{00000000-0004-0000-0300-000029000000}"/>
-    <hyperlink ref="B24" r:id="rId43" xr:uid="{00000000-0004-0000-0300-00002A000000}"/>
-    <hyperlink ref="E24" r:id="rId44" xr:uid="{00000000-0004-0000-0300-00002B000000}"/>
-    <hyperlink ref="B25" r:id="rId45" xr:uid="{00000000-0004-0000-0300-00002C000000}"/>
-    <hyperlink ref="E25" r:id="rId46" xr:uid="{00000000-0004-0000-0300-00002D000000}"/>
-    <hyperlink ref="B26" r:id="rId47" xr:uid="{00000000-0004-0000-0300-00002E000000}"/>
-    <hyperlink ref="E26" r:id="rId48" xr:uid="{00000000-0004-0000-0300-00002F000000}"/>
-    <hyperlink ref="B27" r:id="rId49" xr:uid="{00000000-0004-0000-0300-000030000000}"/>
-    <hyperlink ref="E27" r:id="rId50" xr:uid="{00000000-0004-0000-0300-000031000000}"/>
-    <hyperlink ref="B28" r:id="rId51" xr:uid="{00000000-0004-0000-0300-000032000000}"/>
-    <hyperlink ref="E28" r:id="rId52" xr:uid="{00000000-0004-0000-0300-000033000000}"/>
-    <hyperlink ref="B29" r:id="rId53" xr:uid="{00000000-0004-0000-0300-000034000000}"/>
-    <hyperlink ref="E29" r:id="rId54" xr:uid="{00000000-0004-0000-0300-000035000000}"/>
-    <hyperlink ref="B30" r:id="rId55" xr:uid="{00000000-0004-0000-0300-000036000000}"/>
-    <hyperlink ref="E30" r:id="rId56" xr:uid="{00000000-0004-0000-0300-000037000000}"/>
-    <hyperlink ref="B31" r:id="rId57" xr:uid="{00000000-0004-0000-0300-000038000000}"/>
-    <hyperlink ref="E31" r:id="rId58" xr:uid="{00000000-0004-0000-0300-000039000000}"/>
-    <hyperlink ref="B32" r:id="rId59" xr:uid="{00000000-0004-0000-0300-00003A000000}"/>
-    <hyperlink ref="E32" r:id="rId60" xr:uid="{00000000-0004-0000-0300-00003B000000}"/>
-    <hyperlink ref="B33" r:id="rId61" xr:uid="{00000000-0004-0000-0300-00003C000000}"/>
-    <hyperlink ref="E33" r:id="rId62" xr:uid="{00000000-0004-0000-0300-00003D000000}"/>
-    <hyperlink ref="B34" r:id="rId63" xr:uid="{00000000-0004-0000-0300-00003E000000}"/>
-    <hyperlink ref="E34" r:id="rId64" xr:uid="{00000000-0004-0000-0300-00003F000000}"/>
-    <hyperlink ref="B35" r:id="rId65" xr:uid="{00000000-0004-0000-0300-000040000000}"/>
-    <hyperlink ref="E35" r:id="rId66" xr:uid="{00000000-0004-0000-0300-000041000000}"/>
-    <hyperlink ref="B36" r:id="rId67" xr:uid="{00000000-0004-0000-0300-000042000000}"/>
-    <hyperlink ref="E36" r:id="rId68" xr:uid="{00000000-0004-0000-0300-000043000000}"/>
-    <hyperlink ref="B37" r:id="rId69" xr:uid="{00000000-0004-0000-0300-000044000000}"/>
-    <hyperlink ref="E37" r:id="rId70" xr:uid="{00000000-0004-0000-0300-000045000000}"/>
-    <hyperlink ref="B38" r:id="rId71" xr:uid="{00000000-0004-0000-0300-000046000000}"/>
-    <hyperlink ref="E38" r:id="rId72" xr:uid="{00000000-0004-0000-0300-000047000000}"/>
-    <hyperlink ref="B39" r:id="rId73" xr:uid="{00000000-0004-0000-0300-000048000000}"/>
-    <hyperlink ref="E39" r:id="rId74" xr:uid="{00000000-0004-0000-0300-000049000000}"/>
-    <hyperlink ref="B40" r:id="rId75" xr:uid="{00000000-0004-0000-0300-00004A000000}"/>
-    <hyperlink ref="E40" r:id="rId76" xr:uid="{00000000-0004-0000-0300-00004B000000}"/>
-    <hyperlink ref="B41" r:id="rId77" xr:uid="{00000000-0004-0000-0300-00004C000000}"/>
-    <hyperlink ref="E41" r:id="rId78" xr:uid="{00000000-0004-0000-0300-00004D000000}"/>
-    <hyperlink ref="B42" r:id="rId79" xr:uid="{00000000-0004-0000-0300-00004E000000}"/>
-    <hyperlink ref="E42" r:id="rId80" xr:uid="{00000000-0004-0000-0300-00004F000000}"/>
-    <hyperlink ref="B43" r:id="rId81" xr:uid="{00000000-0004-0000-0300-000050000000}"/>
-    <hyperlink ref="E43" r:id="rId82" xr:uid="{00000000-0004-0000-0300-000051000000}"/>
-    <hyperlink ref="B44" r:id="rId83" xr:uid="{00000000-0004-0000-0300-000052000000}"/>
-    <hyperlink ref="E44" r:id="rId84" xr:uid="{00000000-0004-0000-0300-000053000000}"/>
-    <hyperlink ref="B45" r:id="rId85" xr:uid="{00000000-0004-0000-0300-000054000000}"/>
-    <hyperlink ref="E45" r:id="rId86" xr:uid="{00000000-0004-0000-0300-000055000000}"/>
-    <hyperlink ref="B46" r:id="rId87" xr:uid="{00000000-0004-0000-0300-000056000000}"/>
-    <hyperlink ref="E46" r:id="rId88" xr:uid="{00000000-0004-0000-0300-000057000000}"/>
-    <hyperlink ref="B47" r:id="rId89" xr:uid="{00000000-0004-0000-0300-000058000000}"/>
-    <hyperlink ref="E47" r:id="rId90" xr:uid="{00000000-0004-0000-0300-000059000000}"/>
-    <hyperlink ref="B48" r:id="rId91" xr:uid="{00000000-0004-0000-0300-00005A000000}"/>
-    <hyperlink ref="E48" r:id="rId92" xr:uid="{00000000-0004-0000-0300-00005B000000}"/>
-    <hyperlink ref="B49" r:id="rId93" xr:uid="{00000000-0004-0000-0300-00005C000000}"/>
-    <hyperlink ref="E49" r:id="rId94" xr:uid="{00000000-0004-0000-0300-00005D000000}"/>
-    <hyperlink ref="B50" r:id="rId95" xr:uid="{00000000-0004-0000-0300-00005E000000}"/>
-    <hyperlink ref="E50" r:id="rId96" xr:uid="{00000000-0004-0000-0300-00005F000000}"/>
-    <hyperlink ref="B51" r:id="rId97" xr:uid="{00000000-0004-0000-0300-000060000000}"/>
-    <hyperlink ref="E51" r:id="rId98" xr:uid="{00000000-0004-0000-0300-000061000000}"/>
-    <hyperlink ref="B52" r:id="rId99" xr:uid="{00000000-0004-0000-0300-000062000000}"/>
-    <hyperlink ref="E52" r:id="rId100" xr:uid="{00000000-0004-0000-0300-000063000000}"/>
-    <hyperlink ref="B53" r:id="rId101" xr:uid="{00000000-0004-0000-0300-000064000000}"/>
-    <hyperlink ref="E53" r:id="rId102" xr:uid="{00000000-0004-0000-0300-000065000000}"/>
-    <hyperlink ref="B54" r:id="rId103" xr:uid="{00000000-0004-0000-0300-000066000000}"/>
-    <hyperlink ref="E54" r:id="rId104" xr:uid="{00000000-0004-0000-0300-000067000000}"/>
-    <hyperlink ref="B55" r:id="rId105" xr:uid="{00000000-0004-0000-0300-000068000000}"/>
-    <hyperlink ref="B56" r:id="rId106" xr:uid="{00000000-0004-0000-0300-000069000000}"/>
-    <hyperlink ref="B57" r:id="rId107" xr:uid="{00000000-0004-0000-0300-00006A000000}"/>
-    <hyperlink ref="B58" r:id="rId108" xr:uid="{00000000-0004-0000-0300-00006B000000}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="E5" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="B6" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="E6" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="B7" r:id="rId10" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="E7" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="B8" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="E8" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="B9" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="B10" r:id="rId15" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="E10" r:id="rId16" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="B11" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="E11" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="B12" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="E12" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
+    <hyperlink ref="B13" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
+    <hyperlink ref="E13" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
+    <hyperlink ref="B14" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
+    <hyperlink ref="E14" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
+    <hyperlink ref="B15" r:id="rId25" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
+    <hyperlink ref="E15" r:id="rId26" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
+    <hyperlink ref="B16" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
+    <hyperlink ref="E16" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
+    <hyperlink ref="B17" r:id="rId29" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
+    <hyperlink ref="E17" r:id="rId30" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
+    <hyperlink ref="B18" r:id="rId31" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
+    <hyperlink ref="E18" r:id="rId32" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
+    <hyperlink ref="B19" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
+    <hyperlink ref="B20" r:id="rId34" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
+    <hyperlink ref="B21" r:id="rId35" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
+    <hyperlink ref="E21" r:id="rId36" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
+    <hyperlink ref="B22" r:id="rId37" xr:uid="{00000000-0004-0000-0300-000028000000}"/>
+    <hyperlink ref="E22" r:id="rId38" xr:uid="{00000000-0004-0000-0300-000029000000}"/>
+    <hyperlink ref="B23" r:id="rId39" xr:uid="{00000000-0004-0000-0300-00002A000000}"/>
+    <hyperlink ref="E23" r:id="rId40" xr:uid="{00000000-0004-0000-0300-00002B000000}"/>
+    <hyperlink ref="B24" r:id="rId41" xr:uid="{00000000-0004-0000-0300-00002C000000}"/>
+    <hyperlink ref="E24" r:id="rId42" xr:uid="{00000000-0004-0000-0300-00002D000000}"/>
+    <hyperlink ref="B25" r:id="rId43" xr:uid="{00000000-0004-0000-0300-00002E000000}"/>
+    <hyperlink ref="B26" r:id="rId44" xr:uid="{00000000-0004-0000-0300-000030000000}"/>
+    <hyperlink ref="B27" r:id="rId45" xr:uid="{00000000-0004-0000-0300-000032000000}"/>
+    <hyperlink ref="E27" r:id="rId46" xr:uid="{00000000-0004-0000-0300-000033000000}"/>
+    <hyperlink ref="B28" r:id="rId47" xr:uid="{00000000-0004-0000-0300-000034000000}"/>
+    <hyperlink ref="B29" r:id="rId48" xr:uid="{00000000-0004-0000-0300-000036000000}"/>
+    <hyperlink ref="E29" r:id="rId49" xr:uid="{00000000-0004-0000-0300-000037000000}"/>
+    <hyperlink ref="B30" r:id="rId50" xr:uid="{00000000-0004-0000-0300-000038000000}"/>
+    <hyperlink ref="E30" r:id="rId51" xr:uid="{00000000-0004-0000-0300-000039000000}"/>
+    <hyperlink ref="B31" r:id="rId52" xr:uid="{00000000-0004-0000-0300-00003A000000}"/>
+    <hyperlink ref="B32" r:id="rId53" xr:uid="{00000000-0004-0000-0300-00003C000000}"/>
+    <hyperlink ref="E32" r:id="rId54" xr:uid="{00000000-0004-0000-0300-00003D000000}"/>
+    <hyperlink ref="B33" r:id="rId55" xr:uid="{00000000-0004-0000-0300-00003E000000}"/>
+    <hyperlink ref="E33" r:id="rId56" xr:uid="{00000000-0004-0000-0300-00003F000000}"/>
+    <hyperlink ref="B34" r:id="rId57" xr:uid="{00000000-0004-0000-0300-000040000000}"/>
+    <hyperlink ref="E34" r:id="rId58" xr:uid="{00000000-0004-0000-0300-000041000000}"/>
+    <hyperlink ref="B35" r:id="rId59" xr:uid="{00000000-0004-0000-0300-000042000000}"/>
+    <hyperlink ref="E35" r:id="rId60" xr:uid="{00000000-0004-0000-0300-000043000000}"/>
+    <hyperlink ref="B36" r:id="rId61" xr:uid="{00000000-0004-0000-0300-000044000000}"/>
+    <hyperlink ref="E36" r:id="rId62" xr:uid="{00000000-0004-0000-0300-000045000000}"/>
+    <hyperlink ref="B37" r:id="rId63" xr:uid="{00000000-0004-0000-0300-000046000000}"/>
+    <hyperlink ref="E37" r:id="rId64" xr:uid="{00000000-0004-0000-0300-000047000000}"/>
+    <hyperlink ref="B38" r:id="rId65" xr:uid="{00000000-0004-0000-0300-000048000000}"/>
+    <hyperlink ref="E38" r:id="rId66" xr:uid="{00000000-0004-0000-0300-000049000000}"/>
+    <hyperlink ref="B39" r:id="rId67" xr:uid="{00000000-0004-0000-0300-00004A000000}"/>
+    <hyperlink ref="E39" r:id="rId68" xr:uid="{00000000-0004-0000-0300-00004B000000}"/>
+    <hyperlink ref="B40" r:id="rId69" xr:uid="{00000000-0004-0000-0300-00004C000000}"/>
+    <hyperlink ref="E40" r:id="rId70" xr:uid="{00000000-0004-0000-0300-00004D000000}"/>
+    <hyperlink ref="B41" r:id="rId71" xr:uid="{00000000-0004-0000-0300-00004E000000}"/>
+    <hyperlink ref="B42" r:id="rId72" xr:uid="{00000000-0004-0000-0300-000050000000}"/>
+    <hyperlink ref="E42" r:id="rId73" xr:uid="{00000000-0004-0000-0300-000051000000}"/>
+    <hyperlink ref="B43" r:id="rId74" xr:uid="{00000000-0004-0000-0300-000052000000}"/>
+    <hyperlink ref="E43" r:id="rId75" xr:uid="{00000000-0004-0000-0300-000053000000}"/>
+    <hyperlink ref="B44" r:id="rId76" xr:uid="{00000000-0004-0000-0300-000054000000}"/>
+    <hyperlink ref="B45" r:id="rId77" xr:uid="{00000000-0004-0000-0300-000056000000}"/>
+    <hyperlink ref="B46" r:id="rId78" xr:uid="{00000000-0004-0000-0300-000058000000}"/>
+    <hyperlink ref="E46" r:id="rId79" xr:uid="{00000000-0004-0000-0300-000059000000}"/>
+    <hyperlink ref="B47" r:id="rId80" xr:uid="{00000000-0004-0000-0300-00005A000000}"/>
+    <hyperlink ref="E47" r:id="rId81" xr:uid="{00000000-0004-0000-0300-00005B000000}"/>
+    <hyperlink ref="B48" r:id="rId82" xr:uid="{00000000-0004-0000-0300-00005C000000}"/>
+    <hyperlink ref="E48" r:id="rId83" xr:uid="{00000000-0004-0000-0300-00005D000000}"/>
+    <hyperlink ref="B49" r:id="rId84" xr:uid="{00000000-0004-0000-0300-00005E000000}"/>
+    <hyperlink ref="E49" r:id="rId85" xr:uid="{00000000-0004-0000-0300-00005F000000}"/>
+    <hyperlink ref="B50" r:id="rId86" xr:uid="{00000000-0004-0000-0300-000060000000}"/>
+    <hyperlink ref="E50" r:id="rId87" xr:uid="{00000000-0004-0000-0300-000061000000}"/>
+    <hyperlink ref="B51" r:id="rId88" xr:uid="{00000000-0004-0000-0300-000062000000}"/>
+    <hyperlink ref="B52" r:id="rId89" xr:uid="{00000000-0004-0000-0300-000064000000}"/>
+    <hyperlink ref="B53" r:id="rId90" xr:uid="{00000000-0004-0000-0300-000066000000}"/>
+    <hyperlink ref="E53" r:id="rId91" xr:uid="{00000000-0004-0000-0300-000067000000}"/>
+    <hyperlink ref="B54" r:id="rId92" xr:uid="{00000000-0004-0000-0300-000068000000}"/>
+    <hyperlink ref="B55" r:id="rId93" xr:uid="{00000000-0004-0000-0300-000069000000}"/>
+    <hyperlink ref="B56" r:id="rId94" xr:uid="{00000000-0004-0000-0300-00006A000000}"/>
+    <hyperlink ref="B57" r:id="rId95" xr:uid="{00000000-0004-0000-0300-00006B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
